--- a/biology/Zoologie/Carassius_gibelio/Carassius_gibelio.xlsx
+++ b/biology/Zoologie/Carassius_gibelio/Carassius_gibelio.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Carassius gibelio[3], communément appelé Carassin argenté, Carpe prussienne ou Carpe de Prusse, est une espèce de poissons de la famille des cyprinidés. Elle est proche de deux autres espèces du genre Carassius avec lesquelles elle est souvent confondue, Carassius carassius et Carassius auratus.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carassius gibelio, communément appelé Carassin argenté, Carpe prussienne ou Carpe de Prusse, est une espèce de poissons de la famille des cyprinidés. Elle est proche de deux autres espèces du genre Carassius avec lesquelles elle est souvent confondue, Carassius carassius et Carassius auratus.
 </t>
         </is>
       </c>
